--- a/271025_Results_Med/output/m1/27102025_mod1_by_ses.xlsx
+++ b/271025_Results_Med/output/m1/27102025_mod1_by_ses.xlsx
@@ -632,11 +632,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>131 (81.9%)</t>
+          <t>131 (81.4%)</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
     </row>
     <row r="9">
@@ -667,11 +667,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19 (11.9%)</t>
+          <t>20 (12.4%)</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
     </row>
     <row r="10">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="G10">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
     </row>
     <row r="11">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="G11">
-        <v>0.0635</v>
+        <v>0.0673</v>
       </c>
     </row>
     <row r="12">
